--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.786200000000004</v>
+        <v>-7.862900000000004</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.624000000000004</v>
+        <v>5.553000000000005</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.5755</v>
+        <v>-7.502399999999995</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.265599999999999</v>
+        <v>-7.887599999999997</v>
       </c>
     </row>
     <row r="12">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.374999999999999</v>
+        <v>6.485399999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.999399999999994</v>
+        <v>8.9139</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.0677</v>
+        <v>-8.028100000000002</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.460800000000001</v>
+        <v>-7.511499999999999</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.371100000000001</v>
+        <v>-7.4418</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.418200000000002</v>
+        <v>6.535800000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.921499999999998</v>
+        <v>-7.786800000000004</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.141600000000009</v>
+        <v>8.495900000000008</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.087500000000002</v>
+        <v>-8.016100000000003</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.428700000000001</v>
+        <v>-7.505199999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.037899999999997</v>
+        <v>-8.086900000000005</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.845300000000001</v>
+        <v>-7.923900000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.019999999999999</v>
+        <v>-7.221599999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.889999999999999</v>
+        <v>-6.876399999999997</v>
       </c>
     </row>
     <row r="68">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.360199999999991</v>
+        <v>5.387599999999992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.483499999999999</v>
+        <v>5.503399999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.499900000000004</v>
+        <v>8.625000000000007</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.835100000000002</v>
+        <v>-7.843999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.958500000000003</v>
+        <v>-7.8485</v>
       </c>
     </row>
     <row r="81">
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.377299999999999</v>
+        <v>5.445400000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.359199999999999</v>
+        <v>5.177799999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.473599999999998</v>
+        <v>5.470999999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.215200000000001</v>
+        <v>-8.006700000000002</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.718800000000001</v>
+        <v>-7.479</v>
       </c>
     </row>
     <row r="105">
